--- a/Schema Document.xlsx
+++ b/Schema Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\News App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{331E668B-56BF-4780-BC42-EF3A1E3900E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F2092-D271-4A72-9751-CAAFBF812903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DEC59341-5CE4-4454-9139-57B6BD6DB2B3}"/>
+    <workbookView xWindow="15165" yWindow="0" windowWidth="5325" windowHeight="10920" xr2:uid="{DEC59341-5CE4-4454-9139-57B6BD6DB2B3}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Columns</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>array of strings with tags resent in the article</t>
+  </si>
+  <si>
+    <t>updated_timestamp</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FB5680-4245-47B7-AE4C-147C462EB3BB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +587,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -595,20 +598,31 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
     </row>
